--- a/Doc/Liste de mes abonnements de signaux forex mt4.xlsx
+++ b/Doc/Liste de mes abonnements de signaux forex mt4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\amesika\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604BAAD7-6FE3-4AFB-AE12-2E935BCBA642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E276E90C-7D12-4BC7-8D6D-8F611A97DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi des signeaux" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>Nom du traideur</t>
   </si>
@@ -141,15 +141,70 @@
   <si>
     <t>Calcul du lot a prendre</t>
   </si>
+  <si>
+    <t>Gain Prev</t>
+  </si>
+  <si>
+    <t>Total Gain Prev</t>
+  </si>
+  <si>
+    <t>Balance Prev</t>
+  </si>
+  <si>
+    <t>Total des soldes prev</t>
+  </si>
+  <si>
+    <t>Numéro du compte</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>Quan Hui Guo &amp; Me</t>
+  </si>
+  <si>
+    <t>YouYTTT + Me</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +237,30 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,18 +305,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,8 +315,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -335,17 +414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -645,21 +713,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -886,15 +939,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1021,220 +1065,575 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Milliers" xfId="2" builtinId="3"/>
+    <cellStyle name="Monétaire" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1548,1345 +1947,5058 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T32"/>
+  <dimension ref="A1:BS38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="BG26" sqref="BG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="100" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="100" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="100" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="1"/>
+    <col min="34" max="35" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="62" width="11.42578125" style="1"/>
+    <col min="63" max="63" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.42578125" style="1"/>
+    <col min="70" max="71" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="201" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="201" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="159"/>
+      <c r="AM2" s="201" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="158"/>
+      <c r="AO2" s="158"/>
+      <c r="AP2" s="158"/>
+      <c r="AQ2" s="158"/>
+      <c r="AR2" s="159"/>
+      <c r="AS2" s="201" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="158"/>
+      <c r="AU2" s="158"/>
+      <c r="AV2" s="158"/>
+      <c r="AW2" s="158"/>
+      <c r="AX2" s="159"/>
+      <c r="AY2" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="154"/>
+      <c r="BB2" s="154"/>
+      <c r="BC2" s="154"/>
+      <c r="BD2" s="154"/>
+      <c r="BE2" s="234" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF2" s="154"/>
+      <c r="BG2" s="154"/>
+      <c r="BH2" s="154"/>
+      <c r="BI2" s="154"/>
+      <c r="BJ2" s="155"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+    </row>
+    <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="148" t="s">
+      <c r="C3" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="164" t="s">
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="221" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="168" t="s">
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="227"/>
+      <c r="AC3" s="227"/>
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="227"/>
+      <c r="AI3" s="227"/>
+      <c r="AJ3" s="227"/>
+      <c r="AK3" s="227"/>
+      <c r="AL3" s="228"/>
+      <c r="AM3" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" s="227"/>
+      <c r="AO3" s="227"/>
+      <c r="AP3" s="227"/>
+      <c r="AQ3" s="227"/>
+      <c r="AR3" s="228"/>
+      <c r="AS3" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT3" s="227"/>
+      <c r="AU3" s="227"/>
+      <c r="AV3" s="227"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="228"/>
+      <c r="AY3" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="150" t="s">
+      <c r="AZ3" s="229"/>
+      <c r="BA3" s="229"/>
+      <c r="BB3" s="229"/>
+      <c r="BC3" s="229"/>
+      <c r="BD3" s="229"/>
+      <c r="BE3" s="235" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF3" s="229"/>
+      <c r="BG3" s="229"/>
+      <c r="BH3" s="229"/>
+      <c r="BI3" s="229"/>
+      <c r="BJ3" s="230"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+    </row>
+    <row r="4" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="166" t="s">
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="166" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="171" t="s">
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="218" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="219"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="219"/>
+      <c r="Y4" s="219"/>
+      <c r="Z4" s="220"/>
+      <c r="AA4" s="218" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="219"/>
+      <c r="AC4" s="219"/>
+      <c r="AD4" s="219"/>
+      <c r="AE4" s="219"/>
+      <c r="AF4" s="220"/>
+      <c r="AG4" s="218" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="219"/>
+      <c r="AI4" s="219"/>
+      <c r="AJ4" s="219"/>
+      <c r="AK4" s="219"/>
+      <c r="AL4" s="220"/>
+      <c r="AM4" s="218" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN4" s="219"/>
+      <c r="AO4" s="219"/>
+      <c r="AP4" s="219"/>
+      <c r="AQ4" s="219"/>
+      <c r="AR4" s="220"/>
+      <c r="AS4" s="218" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT4" s="219"/>
+      <c r="AU4" s="219"/>
+      <c r="AV4" s="219"/>
+      <c r="AW4" s="219"/>
+      <c r="AX4" s="220"/>
+      <c r="AY4" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="AZ4" s="170"/>
+      <c r="BA4" s="170"/>
+      <c r="BB4" s="170"/>
+      <c r="BC4" s="170"/>
+      <c r="BD4" s="170"/>
+      <c r="BE4" s="236" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF4" s="170"/>
+      <c r="BG4" s="170"/>
+      <c r="BH4" s="170"/>
+      <c r="BI4" s="170"/>
+      <c r="BJ4" s="171"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+    </row>
+    <row r="5" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="165" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="145">
+        <v>23080997</v>
+      </c>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="145">
+        <v>23215586</v>
+      </c>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="152">
+        <v>23097336</v>
+      </c>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="202">
+        <v>23208081</v>
+      </c>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="202">
+        <v>23215588</v>
+      </c>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="202">
+        <v>23215815</v>
+      </c>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="161"/>
+      <c r="AM5" s="202">
+        <v>23215816</v>
+      </c>
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="161"/>
+      <c r="AS5" s="202">
+        <v>23215818</v>
+      </c>
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="161"/>
+      <c r="AY5" s="156">
+        <v>23165620</v>
+      </c>
+      <c r="AZ5" s="156"/>
+      <c r="BA5" s="156"/>
+      <c r="BB5" s="156"/>
+      <c r="BC5" s="156"/>
+      <c r="BD5" s="156"/>
+      <c r="BE5" s="173">
+        <v>23215819</v>
+      </c>
+      <c r="BF5" s="156"/>
+      <c r="BG5" s="156"/>
+      <c r="BH5" s="156"/>
+      <c r="BI5" s="156"/>
+      <c r="BJ5" s="157"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+    </row>
+    <row r="6" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D6" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="H6" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="J6" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="L6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="N6" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="O6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="P6" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="R6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="T6" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="U6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="237" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="BL6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="BN6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="BP6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="BR6" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="BS6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C7" s="109">
+        <v>290</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="110">
+        <f>C7</f>
+        <v>290</v>
+      </c>
+      <c r="G7" s="112">
+        <f>C7</f>
+        <v>290</v>
+      </c>
+      <c r="H7" s="113"/>
+      <c r="I7" s="109">
+        <v>0</v>
+      </c>
+      <c r="J7" s="110"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="110">
+        <f>I7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="112">
+        <f>I7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="179"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="110">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="112"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="110">
+        <f>U7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="110">
+        <f>AA7</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="110">
+        <f>AG7</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="179"/>
+      <c r="AM7" s="109"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="110">
+        <f>AM7</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="179"/>
+      <c r="AS7" s="109"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="110">
+        <f>AS7</f>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="179"/>
+      <c r="AY7" s="115"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="110">
+        <f>AY7</f>
+        <v>0</v>
+      </c>
+      <c r="BC7" s="111"/>
+      <c r="BD7" s="114"/>
+      <c r="BE7" s="109"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="110">
+        <f>BE7</f>
+        <v>0</v>
+      </c>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="116"/>
+      <c r="BK7" s="109">
+        <f>BE7+AY7+AS7+AM7+AG7+AA7+U7+O7+I7+C7</f>
+        <v>290</v>
+      </c>
+      <c r="BL7" s="115"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111">
+        <f>BK7</f>
+        <v>290</v>
+      </c>
+      <c r="BO7" s="111">
+        <f>BK7</f>
+        <v>290</v>
+      </c>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="117"/>
+      <c r="BS7" s="117"/>
+    </row>
+    <row r="8" spans="1:71" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="120"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112">
+        <f>F7</f>
+        <v>290</v>
+      </c>
+      <c r="G8" s="112">
+        <f>G7</f>
+        <v>290</v>
+      </c>
+      <c r="H8" s="121"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112">
+        <f>L7</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="112">
+        <f>M7</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="180"/>
+      <c r="O8" s="120">
         <v>180</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66">
-        <f>C5</f>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112">
+        <f>O8</f>
         <v>180</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68">
-        <f>K5+G5+C5</f>
+      <c r="S8" s="122">
+        <f>O8</f>
         <v>180</v>
       </c>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69">
-        <f>O5</f>
+      <c r="T8" s="180"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112">
+        <f>U8</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="180"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112">
+        <f>AA8</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="180"/>
+      <c r="AG8" s="120"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="112"/>
+      <c r="AJ8" s="112">
+        <f>AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="180"/>
+      <c r="AM8" s="120"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112">
+        <f>AM8</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="180"/>
+      <c r="AS8" s="120"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112">
+        <f>AS8</f>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="180"/>
+      <c r="AY8" s="124"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="112">
+        <f>AY8</f>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="123"/>
+      <c r="BE8" s="120"/>
+      <c r="BF8" s="112"/>
+      <c r="BG8" s="112"/>
+      <c r="BH8" s="112">
+        <f>BE8</f>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="112"/>
+      <c r="BJ8" s="125"/>
+      <c r="BK8" s="120">
+        <f t="shared" ref="BK8:BK10" si="0">BE8+AY8+AS8+AM8+AG8+AA8+U8+O8+I8+C8</f>
         <v>180</v>
       </c>
-      <c r="R5" s="70"/>
-      <c r="T5" s="62"/>
-    </row>
-    <row r="6" spans="2:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="BL8" s="124"/>
+      <c r="BM8" s="112"/>
+      <c r="BN8" s="112">
+        <f>BK8</f>
+        <v>180</v>
+      </c>
+      <c r="BO8" s="112">
+        <f>BK8</f>
+        <v>180</v>
+      </c>
+      <c r="BP8" s="125"/>
+      <c r="BQ8" s="38"/>
+      <c r="BR8" s="126"/>
+      <c r="BS8" s="126"/>
+    </row>
+    <row r="9" spans="1:71" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66">
-        <f>E5</f>
+      <c r="C9" s="120"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112">
+        <f>F8</f>
+        <v>290</v>
+      </c>
+      <c r="G9" s="112">
+        <f>G7</f>
+        <v>290</v>
+      </c>
+      <c r="H9" s="121"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112">
+        <f>L8</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="112">
+        <f>M7</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="180"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112">
+        <f>R8</f>
         <v>180</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="66">
+      <c r="S9" s="122">
+        <f>S8</f>
         <v>180</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="98">
-        <f>G6</f>
+      <c r="T9" s="180"/>
+      <c r="U9" s="120">
+        <v>532</v>
+      </c>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112">
+        <f>U9</f>
+        <v>532</v>
+      </c>
+      <c r="Y9" s="112">
+        <f>U9</f>
+        <v>532</v>
+      </c>
+      <c r="Z9" s="180"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="112">
+        <f>AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="112">
+        <f>AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="180"/>
+      <c r="AG9" s="120"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="112"/>
+      <c r="AJ9" s="112">
+        <f>AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="112">
+        <f>AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="180"/>
+      <c r="AM9" s="120"/>
+      <c r="AN9" s="112"/>
+      <c r="AO9" s="112"/>
+      <c r="AP9" s="112">
+        <f>AM9</f>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="112">
+        <f>AM9</f>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="180"/>
+      <c r="AS9" s="120"/>
+      <c r="AT9" s="112"/>
+      <c r="AU9" s="112"/>
+      <c r="AV9" s="112">
+        <f>AS9</f>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="112">
+        <f>AS9</f>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="180"/>
+      <c r="AY9" s="124"/>
+      <c r="AZ9" s="112"/>
+      <c r="BA9" s="112"/>
+      <c r="BB9" s="112">
+        <f>BB8</f>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="112"/>
+      <c r="BD9" s="123"/>
+      <c r="BE9" s="120"/>
+      <c r="BF9" s="112"/>
+      <c r="BG9" s="112"/>
+      <c r="BH9" s="112">
+        <f>BH8</f>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="112"/>
+      <c r="BJ9" s="125"/>
+      <c r="BK9" s="120">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="BL9" s="124"/>
+      <c r="BM9" s="112"/>
+      <c r="BN9" s="112">
+        <f>BK9</f>
+        <v>532</v>
+      </c>
+      <c r="BO9" s="112">
+        <f>BK9</f>
+        <v>532</v>
+      </c>
+      <c r="BP9" s="125"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="126"/>
+      <c r="BS9" s="126"/>
+    </row>
+    <row r="10" spans="1:71" s="135" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129">
+        <f>F9</f>
+        <v>290</v>
+      </c>
+      <c r="G10" s="129">
+        <f>G7</f>
+        <v>290</v>
+      </c>
+      <c r="H10" s="130"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129">
+        <f>L9</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="129">
+        <f>M7</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="203"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="129">
+        <f>R9</f>
         <v>180</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="94">
-        <f>K6+G6+C6</f>
+      <c r="S10" s="132">
+        <f>S9</f>
         <v>180</v>
       </c>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95">
-        <f>O6</f>
+      <c r="T10" s="181"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129">
+        <f>X9</f>
+        <v>532</v>
+      </c>
+      <c r="Y10" s="129">
+        <f>Y9</f>
+        <v>532</v>
+      </c>
+      <c r="Z10" s="203"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129">
+        <f>AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="129">
+        <f>AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="203"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="129">
+        <f>AJ9</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="129">
+        <f>AK9</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="203"/>
+      <c r="AM10" s="128"/>
+      <c r="AN10" s="129"/>
+      <c r="AO10" s="129"/>
+      <c r="AP10" s="129">
+        <f>AP9</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="129">
+        <f>AQ9</f>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="203"/>
+      <c r="AS10" s="128"/>
+      <c r="AT10" s="129"/>
+      <c r="AU10" s="129"/>
+      <c r="AV10" s="129">
+        <f>AV9</f>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="129">
+        <f>AW9</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="203"/>
+      <c r="AY10" s="174">
+        <v>260</v>
+      </c>
+      <c r="AZ10" s="129"/>
+      <c r="BA10" s="129"/>
+      <c r="BB10" s="129">
+        <f>AY10</f>
+        <v>260</v>
+      </c>
+      <c r="BC10" s="129">
+        <f>AY10</f>
+        <v>260</v>
+      </c>
+      <c r="BD10" s="131"/>
+      <c r="BE10" s="128"/>
+      <c r="BF10" s="129"/>
+      <c r="BG10" s="129"/>
+      <c r="BH10" s="129">
+        <f>BE10</f>
+        <v>0</v>
+      </c>
+      <c r="BI10" s="129">
+        <f>BE10</f>
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="133"/>
+      <c r="BK10" s="270">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="BL10" s="174"/>
+      <c r="BM10" s="129"/>
+      <c r="BN10" s="129">
+        <f>BK10</f>
+        <v>260</v>
+      </c>
+      <c r="BO10" s="129">
+        <f>BK10</f>
+        <v>260</v>
+      </c>
+      <c r="BP10" s="133"/>
+      <c r="BQ10" s="38"/>
+      <c r="BR10" s="134"/>
+      <c r="BS10" s="134"/>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>44533</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44">
+        <v>58</v>
+      </c>
+      <c r="E11" s="45">
+        <f>-35.04-23.12</f>
+        <v>-58.16</v>
+      </c>
+      <c r="F11" s="46">
+        <f>D11+F10</f>
+        <v>348</v>
+      </c>
+      <c r="G11" s="46">
+        <f>E11+G10</f>
+        <v>231.84</v>
+      </c>
+      <c r="H11" s="102">
+        <f t="shared" ref="H11:H27" si="1">E11/G10</f>
+        <v>-0.20055172413793101</v>
+      </c>
+      <c r="I11" s="255"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46">
+        <f>J11+L10</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="46">
+        <f>K11+M10</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="256"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="47">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="47">
+        <f>-31.86+0.89</f>
+        <v>-30.97</v>
+      </c>
+      <c r="R11" s="80">
+        <f>P11+R10</f>
+        <v>216</v>
+      </c>
+      <c r="S11" s="80">
+        <f>Q11+S10</f>
+        <v>149.03</v>
+      </c>
+      <c r="T11" s="183">
+        <f>Q11/S10</f>
+        <v>-0.17205555555555554</v>
+      </c>
+      <c r="U11" s="204"/>
+      <c r="V11" s="48">
+        <v>110</v>
+      </c>
+      <c r="W11" s="48">
+        <f>-32+165.75</f>
+        <v>133.75</v>
+      </c>
+      <c r="X11" s="82">
+        <f>V11+X10</f>
+        <v>642</v>
+      </c>
+      <c r="Y11" s="39">
+        <f>W11+Y10</f>
+        <v>665.75</v>
+      </c>
+      <c r="Z11" s="205">
+        <f>W11/Y10</f>
+        <v>0.25140977443609025</v>
+      </c>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="82">
+        <f>AB11+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="39">
+        <f>AC11+AE10</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="205"/>
+      <c r="AG11" s="204"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="82">
+        <f>AH11+AJ10</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="39">
+        <f>AI11+AK10</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="205"/>
+      <c r="AM11" s="204"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="82">
+        <f>AN11+AP10</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="39">
+        <f>AO11+AQ10</f>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="205"/>
+      <c r="AS11" s="204"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="82">
+        <f>AT11+AV10</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="39">
+        <f>AU11+AW10</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="205"/>
+      <c r="AY11" s="196"/>
+      <c r="AZ11" s="49">
+        <v>52</v>
+      </c>
+      <c r="BA11" s="49">
+        <f>-60.53+42.65</f>
+        <v>-17.880000000000003</v>
+      </c>
+      <c r="BB11" s="84">
+        <f>AZ11+BB10</f>
+        <v>312</v>
+      </c>
+      <c r="BC11" s="50">
+        <f>BA11+BC10</f>
+        <v>242.12</v>
+      </c>
+      <c r="BD11" s="98">
+        <f t="shared" ref="BD11:BD27" si="2">BA11/BC10</f>
+        <v>-6.8769230769230777E-2</v>
+      </c>
+      <c r="BE11" s="238"/>
+      <c r="BF11" s="49"/>
+      <c r="BG11" s="49"/>
+      <c r="BH11" s="84">
+        <f>BF11+BH10</f>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="50">
+        <f>BG11+BI10</f>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="239"/>
+      <c r="BK11" s="268">
+        <f>SUM(O11,BE11)</f>
+        <v>0</v>
+      </c>
+      <c r="BL11" s="269">
+        <f>BF11+AZ11+AT11+AN11+AH11+AB11+V11+P11+J11+D11</f>
+        <v>256</v>
+      </c>
+      <c r="BM11" s="269">
+        <f>BG11+BA11+AU11+AO11+AI11+AC11+W11+Q11+K11+E11</f>
+        <v>26.740000000000009</v>
+      </c>
+      <c r="BN11" s="60">
+        <f>SUM(BN7:BN10)+BL11</f>
+        <v>1518</v>
+      </c>
+      <c r="BO11" s="266">
+        <f>SUM(BO7:BO10)+BM11</f>
+        <v>1288.74</v>
+      </c>
+      <c r="BP11" s="271">
+        <f>BM11/BO11</f>
+        <v>2.074894858544005E-2</v>
+      </c>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="51">
+        <f>BR10+BL11</f>
+        <v>256</v>
+      </c>
+      <c r="BS11" s="51">
+        <f>BS10+BM11</f>
+        <v>26.740000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>44540</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="44">
+        <v>58</v>
+      </c>
+      <c r="E12" s="44">
+        <v>-24.25</v>
+      </c>
+      <c r="F12" s="44">
+        <f t="shared" ref="F12:F27" si="3">D12+F11</f>
+        <v>406</v>
+      </c>
+      <c r="G12" s="53">
+        <f t="shared" ref="G12:G27" si="4">E12+G11</f>
+        <v>207.59</v>
+      </c>
+      <c r="H12" s="103">
+        <f t="shared" si="1"/>
+        <v>-0.10459799861973774</v>
+      </c>
+      <c r="I12" s="257"/>
+      <c r="J12" s="44">
+        <v>100</v>
+      </c>
+      <c r="K12" s="44">
+        <v>100</v>
+      </c>
+      <c r="L12" s="44">
+        <f t="shared" ref="L12:L27" si="5">J12+L11</f>
+        <v>100</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" ref="M12:M27" si="6">K12+M11</f>
+        <v>100</v>
+      </c>
+      <c r="N12" s="258"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="55">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>-39.25</v>
+      </c>
+      <c r="R12" s="55">
+        <f t="shared" ref="R12:R27" si="7">P12+R11</f>
+        <v>252</v>
+      </c>
+      <c r="S12" s="54">
+        <f t="shared" ref="S12:S27" si="8">Q12+S11</f>
+        <v>109.78</v>
+      </c>
+      <c r="T12" s="185">
+        <f>Q12/S11</f>
+        <v>-0.26336979131718447</v>
+      </c>
+      <c r="U12" s="206"/>
+      <c r="V12" s="41">
+        <v>110</v>
+      </c>
+      <c r="W12" s="41">
+        <v>363.71</v>
+      </c>
+      <c r="X12" s="41">
+        <f t="shared" ref="X12:X27" si="9">V12+X11</f>
+        <v>752</v>
+      </c>
+      <c r="Y12" s="40">
+        <f t="shared" ref="Y12:Y27" si="10">W12+Y11</f>
+        <v>1029.46</v>
+      </c>
+      <c r="Z12" s="207">
+        <f>W12/Y11</f>
+        <v>0.54631618475403676</v>
+      </c>
+      <c r="AA12" s="206"/>
+      <c r="AB12" s="41">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="41">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="41">
+        <f t="shared" ref="AD12:AD27" si="11">AB12+AD11</f>
+        <v>100</v>
+      </c>
+      <c r="AE12" s="40">
+        <f t="shared" ref="AE12:AE27" si="12">AC12+AE11</f>
+        <v>100</v>
+      </c>
+      <c r="AF12" s="207"/>
+      <c r="AG12" s="206"/>
+      <c r="AH12" s="41">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="41">
+        <v>100</v>
+      </c>
+      <c r="AJ12" s="41">
+        <f t="shared" ref="AJ12:AJ27" si="13">AH12+AJ11</f>
+        <v>100</v>
+      </c>
+      <c r="AK12" s="40">
+        <f t="shared" ref="AK12:AK27" si="14">AI12+AK11</f>
+        <v>100</v>
+      </c>
+      <c r="AL12" s="207"/>
+      <c r="AM12" s="206"/>
+      <c r="AN12" s="41">
+        <v>100</v>
+      </c>
+      <c r="AO12" s="41">
+        <v>100</v>
+      </c>
+      <c r="AP12" s="41">
+        <f t="shared" ref="AP12:AP27" si="15">AN12+AP11</f>
+        <v>100</v>
+      </c>
+      <c r="AQ12" s="40">
+        <f t="shared" ref="AQ12:AQ27" si="16">AO12+AQ11</f>
+        <v>100</v>
+      </c>
+      <c r="AR12" s="207"/>
+      <c r="AS12" s="206"/>
+      <c r="AT12" s="41">
+        <v>100</v>
+      </c>
+      <c r="AU12" s="41">
+        <v>100</v>
+      </c>
+      <c r="AV12" s="41">
+        <f t="shared" ref="AV12:AV27" si="17">AT12+AV11</f>
+        <v>100</v>
+      </c>
+      <c r="AW12" s="40">
+        <f t="shared" ref="AW12:AW27" si="18">AU12+AW11</f>
+        <v>100</v>
+      </c>
+      <c r="AX12" s="207"/>
+      <c r="AY12" s="197"/>
+      <c r="AZ12" s="57">
+        <v>52</v>
+      </c>
+      <c r="BA12" s="57">
+        <v>-81.099999999999994</v>
+      </c>
+      <c r="BB12" s="57">
+        <f t="shared" ref="BB12:BB27" si="19">AZ12+BB11</f>
+        <v>364</v>
+      </c>
+      <c r="BC12" s="56">
+        <f>BA12+BC11</f>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD12" s="99">
+        <f t="shared" si="2"/>
+        <v>-0.33495787212952249</v>
+      </c>
+      <c r="BE12" s="240"/>
+      <c r="BF12" s="57">
+        <v>90</v>
+      </c>
+      <c r="BG12" s="57">
+        <v>90</v>
+      </c>
+      <c r="BH12" s="57">
+        <v>90</v>
+      </c>
+      <c r="BI12" s="56">
+        <f>BG12+BI11</f>
+        <v>90</v>
+      </c>
+      <c r="BJ12" s="241"/>
+      <c r="BK12" s="58">
+        <f>SUM(O12,BE12)</f>
+        <v>0</v>
+      </c>
+      <c r="BL12" s="36">
+        <f>BF12+AZ12+AT12+AN12+AH12+AB12+V12+P12+J12+D12</f>
+        <v>846</v>
+      </c>
+      <c r="BM12" s="59">
+        <f t="shared" ref="BM12:BM27" si="20">BG12+BA12+AU12+AO12+AI12+AC12+W12+Q12+K12+E12</f>
+        <v>809.1099999999999</v>
+      </c>
+      <c r="BN12" s="60">
+        <f>BN11+BL12</f>
+        <v>2364</v>
+      </c>
+      <c r="BO12" s="266">
+        <f>BO11+BM12</f>
+        <v>2097.85</v>
+      </c>
+      <c r="BP12" s="272">
+        <f t="shared" ref="BP12:BP27" si="21">BM12/BO12</f>
+        <v>0.38568534451938885</v>
+      </c>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="51">
+        <f>BR11+BL12</f>
+        <v>1102</v>
+      </c>
+      <c r="BS12" s="51">
+        <f>BS11+BM12</f>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>44547</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="44">
+        <v>58</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="G13" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H13" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="259"/>
+      <c r="J13" s="62">
+        <v>34</v>
+      </c>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="M13" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N13" s="258">
+        <f t="shared" ref="N11:N27" si="22">K13/M12</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="186"/>
+      <c r="P13" s="63">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63">
+        <f t="shared" si="7"/>
+        <v>288</v>
+      </c>
+      <c r="S13" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T13" s="185">
+        <f t="shared" ref="T13:T27" si="23">Q13/S12</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="208"/>
+      <c r="V13" s="64">
+        <v>110</v>
+      </c>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64">
+        <f t="shared" si="9"/>
+        <v>862</v>
+      </c>
+      <c r="Y13" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z13" s="207">
+        <f t="shared" ref="Z13:Z27" si="24">W13/Y12</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="208"/>
+      <c r="AB13" s="64">
+        <v>34</v>
+      </c>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64">
+        <f t="shared" si="11"/>
+        <v>134</v>
+      </c>
+      <c r="AE13" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF13" s="207">
+        <f t="shared" ref="AF13:AF27" si="25">AC13/AE12</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="208"/>
+      <c r="AH13" s="64">
+        <v>34</v>
+      </c>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64">
+        <f t="shared" si="13"/>
+        <v>134</v>
+      </c>
+      <c r="AK13" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL13" s="207">
+        <f t="shared" ref="AL13:AL27" si="26">AI13/AK12</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="208"/>
+      <c r="AN13" s="64">
+        <v>34</v>
+      </c>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64">
+        <f t="shared" si="15"/>
+        <v>134</v>
+      </c>
+      <c r="AQ13" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR13" s="207">
+        <f t="shared" ref="AR13:AR27" si="27">AO13/AQ12</f>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="208"/>
+      <c r="AT13" s="64">
+        <v>34</v>
+      </c>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64">
+        <f t="shared" si="17"/>
+        <v>134</v>
+      </c>
+      <c r="AW13" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX13" s="207">
+        <f t="shared" ref="AX13:AX27" si="28">AU13/AW12</f>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="198"/>
+      <c r="AZ13" s="65">
+        <v>52</v>
+      </c>
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="65">
+        <f t="shared" si="19"/>
+        <v>416</v>
+      </c>
+      <c r="BC13" s="56">
+        <f t="shared" ref="BC13:BC27" si="29">BA13+BC12</f>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD13" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="242"/>
+      <c r="BF13" s="65">
+        <v>34</v>
+      </c>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="65">
+        <f t="shared" ref="BH12:BH27" si="30">BF13+BH12</f>
+        <v>124</v>
+      </c>
+      <c r="BI13" s="56">
+        <f t="shared" ref="BI13:BI27" si="31">BG13+BI12</f>
+        <v>90</v>
+      </c>
+      <c r="BJ13" s="241">
+        <f t="shared" ref="BJ11:BJ27" si="32">BG13/BI12</f>
+        <v>0</v>
+      </c>
+      <c r="BK13" s="58">
+        <f>SUM(O13,BE13)</f>
+        <v>0</v>
+      </c>
+      <c r="BL13" s="36">
+        <f t="shared" ref="BL13:BL27" si="33">BF13+AZ13+AT13+AN13+AH13+AB13+V13+P13+J13+D13</f>
+        <v>460</v>
+      </c>
+      <c r="BM13" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN13" s="60">
+        <f t="shared" ref="BN13:BN27" si="34">BN12+BL13</f>
+        <v>2824</v>
+      </c>
+      <c r="BO13" s="266">
+        <f t="shared" ref="BO13:BO27" si="35">BO12+BM13</f>
+        <v>2097.85</v>
+      </c>
+      <c r="BP13" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="38"/>
+      <c r="BR13" s="51">
+        <f t="shared" ref="BR13:BS27" si="36">BR12+BL13</f>
+        <v>1562</v>
+      </c>
+      <c r="BS13" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>44554</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="44">
+        <v>58</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62">
+        <f t="shared" si="3"/>
+        <v>522</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H14" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="259"/>
+      <c r="J14" s="62">
+        <v>34</v>
+      </c>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="M14" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N14" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="186"/>
+      <c r="P14" s="63">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63">
+        <f t="shared" si="7"/>
+        <v>324</v>
+      </c>
+      <c r="S14" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T14" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="208"/>
+      <c r="V14" s="64">
+        <v>110</v>
+      </c>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64">
+        <f t="shared" si="9"/>
+        <v>972</v>
+      </c>
+      <c r="Y14" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z14" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="208"/>
+      <c r="AB14" s="64">
+        <v>34</v>
+      </c>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="AE14" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF14" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="208"/>
+      <c r="AH14" s="64">
+        <v>34</v>
+      </c>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64">
+        <f t="shared" si="13"/>
+        <v>168</v>
+      </c>
+      <c r="AK14" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL14" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="208"/>
+      <c r="AN14" s="64">
+        <v>34</v>
+      </c>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64">
+        <f t="shared" si="15"/>
+        <v>168</v>
+      </c>
+      <c r="AQ14" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR14" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="208"/>
+      <c r="AT14" s="64">
+        <v>34</v>
+      </c>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64">
+        <f t="shared" si="17"/>
+        <v>168</v>
+      </c>
+      <c r="AW14" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX14" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="198"/>
+      <c r="AZ14" s="65">
+        <v>52</v>
+      </c>
+      <c r="BA14" s="65"/>
+      <c r="BB14" s="65">
+        <f t="shared" si="19"/>
+        <v>468</v>
+      </c>
+      <c r="BC14" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD14" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="242"/>
+      <c r="BF14" s="65">
+        <v>34</v>
+      </c>
+      <c r="BG14" s="65"/>
+      <c r="BH14" s="65">
+        <f t="shared" si="30"/>
+        <v>158</v>
+      </c>
+      <c r="BI14" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ14" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK14" s="58">
+        <f>SUM(O14,BE14)</f>
+        <v>0</v>
+      </c>
+      <c r="BL14" s="36">
+        <f t="shared" si="33"/>
+        <v>460</v>
+      </c>
+      <c r="BM14" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN14" s="60">
+        <f t="shared" si="34"/>
+        <v>3284</v>
+      </c>
+      <c r="BO14" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP14" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="38"/>
+      <c r="BR14" s="51">
+        <f t="shared" si="36"/>
+        <v>2022</v>
+      </c>
+      <c r="BS14" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>44561</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="44">
+        <v>58</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G15" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H15" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="259"/>
+      <c r="J15" s="62">
+        <v>34</v>
+      </c>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M15" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N15" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="186"/>
+      <c r="P15" s="63">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S15" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T15" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="208"/>
+      <c r="V15" s="64">
+        <v>110</v>
+      </c>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y15" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z15" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="64">
+        <v>34</v>
+      </c>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE15" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF15" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="208"/>
+      <c r="AH15" s="64">
+        <v>34</v>
+      </c>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK15" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL15" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="208"/>
+      <c r="AN15" s="64">
+        <v>34</v>
+      </c>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ15" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR15" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="208"/>
+      <c r="AT15" s="64">
+        <v>34</v>
+      </c>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW15" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX15" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="198"/>
+      <c r="AZ15" s="65">
+        <v>52</v>
+      </c>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC15" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD15" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="242"/>
+      <c r="BF15" s="65">
+        <v>34</v>
+      </c>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI15" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ15" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="58">
+        <f>SUM(O15,BE15)</f>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="36">
+        <f t="shared" si="33"/>
+        <v>460</v>
+      </c>
+      <c r="BM15" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN15" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO15" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP15" s="272">
+        <f>BM15/BO15</f>
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="38"/>
+      <c r="BR15" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS15" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G16" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H16" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="259"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M16" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N16" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="186"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S16" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T16" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="208"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y16" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z16" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="208"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE16" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF16" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="208"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK16" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL16" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="208"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
+      <c r="AP16" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ16" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR16" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="208"/>
+      <c r="AT16" s="64"/>
+      <c r="AU16" s="64"/>
+      <c r="AV16" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW16" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX16" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="198"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC16" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD16" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="242"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI16" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ16" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK16" s="58">
+        <f>SUM(O16,BE16)</f>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM16" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN16" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO16" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP16" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="38"/>
+      <c r="BR16" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS16" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G17" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H17" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="259"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M17" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N17" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="186"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S17" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T17" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="208"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y17" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z17" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="208"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE17" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF17" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="208"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK17" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL17" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="208"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ17" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR17" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="208"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW17" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX17" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="198"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC17" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD17" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="242"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI17" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ17" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="58">
+        <f>SUM(O17,BE17)</f>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM17" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN17" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO17" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP17" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="38"/>
+      <c r="BR17" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS17" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G18" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H18" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="259"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M18" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N18" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="186"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S18" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T18" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="208"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y18" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z18" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="208"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE18" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF18" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="208"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK18" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL18" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="208"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ18" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR18" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="208"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW18" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX18" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="198"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC18" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD18" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="242"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI18" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ18" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK18" s="58">
+        <f>SUM(O18,BE18)</f>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM18" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN18" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO18" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP18" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="38"/>
+      <c r="BR18" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS18" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G19" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H19" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="259"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M19" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N19" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="186"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S19" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T19" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="208"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y19" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z19" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="208"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE19" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF19" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="208"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK19" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL19" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="208"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ19" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR19" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="208"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW19" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX19" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="198"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC19" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD19" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="242"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI19" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ19" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK19" s="58">
+        <f>SUM(O19,BE19)</f>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM19" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO19" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP19" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="38"/>
+      <c r="BR19" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS19" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G20" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H20" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="259"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M20" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N20" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="186"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S20" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T20" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="208"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y20" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z20" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="208"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE20" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF20" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="208"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK20" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL20" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="208"/>
+      <c r="AN20" s="64"/>
+      <c r="AO20" s="64"/>
+      <c r="AP20" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ20" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR20" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="208"/>
+      <c r="AT20" s="64"/>
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW20" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX20" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="198"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC20" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD20" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="242"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI20" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ20" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK20" s="58">
+        <f>SUM(O20,BE20)</f>
+        <v>0</v>
+      </c>
+      <c r="BL20" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM20" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN20" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO20" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP20" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="38"/>
+      <c r="BR20" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS20" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G21" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H21" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="259"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M21" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N21" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="186"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S21" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T21" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="208"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y21" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z21" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="208"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE21" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF21" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="208"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK21" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL21" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="208"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ21" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR21" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="208"/>
+      <c r="AT21" s="64"/>
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW21" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX21" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="198"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC21" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD21" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="242"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="65"/>
+      <c r="BH21" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI21" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ21" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="58">
+        <f>SUM(O21,BE21)</f>
+        <v>0</v>
+      </c>
+      <c r="BL21" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM21" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN21" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO21" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP21" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS21" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G22" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H22" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="259"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M22" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N22" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="186"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S22" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T22" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="208"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y22" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z22" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="208"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE22" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF22" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="208"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK22" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL22" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="208"/>
+      <c r="AN22" s="64"/>
+      <c r="AO22" s="64"/>
+      <c r="AP22" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ22" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR22" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="208"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="64"/>
+      <c r="AV22" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW22" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX22" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="198"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC22" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD22" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="242"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI22" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ22" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK22" s="58">
+        <f>SUM(O22,BE22)</f>
+        <v>0</v>
+      </c>
+      <c r="BL22" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM22" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN22" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO22" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP22" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="38"/>
+      <c r="BR22" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS22" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G23" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H23" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="259"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M23" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N23" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="186"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S23" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T23" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="208"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y23" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z23" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="208"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE23" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF23" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="208"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK23" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL23" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="208"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ23" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR23" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="208"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW23" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX23" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="198"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC23" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD23" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="242"/>
+      <c r="BF23" s="65"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI23" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ23" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK23" s="58">
+        <f>SUM(O23,BE23)</f>
+        <v>0</v>
+      </c>
+      <c r="BL23" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM23" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN23" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO23" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP23" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="38"/>
+      <c r="BR23" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS23" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G24" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H24" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="259"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M24" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N24" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="186"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S24" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T24" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="208"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y24" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z24" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="208"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE24" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF24" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="208"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK24" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL24" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="208"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+      <c r="AP24" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ24" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR24" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS24" s="208"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="64"/>
+      <c r="AV24" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW24" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX24" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="198"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC24" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD24" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="242"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI24" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ24" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK24" s="58">
+        <f>SUM(O24,BE24)</f>
+        <v>0</v>
+      </c>
+      <c r="BL24" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM24" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN24" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO24" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP24" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="38"/>
+      <c r="BR24" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS24" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G25" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H25" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="259"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M25" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N25" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="186"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S25" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T25" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="208"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y25" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z25" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="208"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE25" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF25" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="208"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK25" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL25" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="208"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ25" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR25" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS25" s="208"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW25" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX25" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="198"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC25" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD25" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="242"/>
+      <c r="BF25" s="65"/>
+      <c r="BG25" s="65"/>
+      <c r="BH25" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI25" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ25" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK25" s="58">
+        <f>SUM(O25,BE25)</f>
+        <v>0</v>
+      </c>
+      <c r="BL25" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM25" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN25" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO25" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP25" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="38"/>
+      <c r="BR25" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS25" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G26" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H26" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="259"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M26" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N26" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="186"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S26" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T26" s="185">
+        <f>Q26/S25</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="208"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y26" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z26" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="208"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE26" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF26" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="208"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK26" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL26" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="208"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ26" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR26" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="208"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW26" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX26" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="198"/>
+      <c r="AZ26" s="65"/>
+      <c r="BA26" s="65"/>
+      <c r="BB26" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC26" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD26" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="242"/>
+      <c r="BF26" s="65"/>
+      <c r="BG26" s="65"/>
+      <c r="BH26" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI26" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ26" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK26" s="58">
+        <f>SUM(O26,BE26)</f>
+        <v>0</v>
+      </c>
+      <c r="BL26" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM26" s="59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN26" s="60">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO26" s="266">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP26" s="272">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="38"/>
+      <c r="BR26" s="51">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS26" s="51">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="62">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="G27" s="53">
+        <f t="shared" si="4"/>
+        <v>207.59</v>
+      </c>
+      <c r="H27" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="260"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="62">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="M27" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N27" s="258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="187"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="63">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="S27" s="54">
+        <f t="shared" si="8"/>
+        <v>109.78</v>
+      </c>
+      <c r="T27" s="185">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="209"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="64">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="Y27" s="40">
+        <f t="shared" si="10"/>
+        <v>1029.46</v>
+      </c>
+      <c r="Z27" s="207">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="209"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="64">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="AE27" s="40">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AF27" s="207">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="209"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="64">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AK27" s="40">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AL27" s="207">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="209"/>
+      <c r="AN27" s="69"/>
+      <c r="AO27" s="69"/>
+      <c r="AP27" s="64">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="AQ27" s="40">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AR27" s="207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AS27" s="209"/>
+      <c r="AT27" s="69"/>
+      <c r="AU27" s="69"/>
+      <c r="AV27" s="64">
+        <f t="shared" si="17"/>
+        <v>202</v>
+      </c>
+      <c r="AW27" s="40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AX27" s="207">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="199"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="70"/>
+      <c r="BB27" s="65">
+        <f t="shared" si="19"/>
+        <v>520</v>
+      </c>
+      <c r="BC27" s="56">
+        <f t="shared" si="29"/>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD27" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="243"/>
+      <c r="BF27" s="70"/>
+      <c r="BG27" s="70"/>
+      <c r="BH27" s="65">
+        <f t="shared" si="30"/>
+        <v>192</v>
+      </c>
+      <c r="BI27" s="56">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="BJ27" s="241">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BK27" s="71">
+        <f>SUM(O27,BE27)</f>
+        <v>0</v>
+      </c>
+      <c r="BL27" s="232">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BM27" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN27" s="72">
+        <f t="shared" si="34"/>
+        <v>3744</v>
+      </c>
+      <c r="BO27" s="267">
+        <f t="shared" si="35"/>
+        <v>2097.85</v>
+      </c>
+      <c r="BP27" s="273">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="38"/>
+      <c r="BR27" s="42">
+        <f t="shared" si="36"/>
+        <v>2482</v>
+      </c>
+      <c r="BS27" s="42">
+        <f t="shared" si="36"/>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="189"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="211"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="211"/>
+      <c r="AG28" s="210"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="211"/>
+      <c r="AM28" s="210"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="162"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="211"/>
+      <c r="AS28" s="210"/>
+      <c r="AT28" s="162"/>
+      <c r="AU28" s="162"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="211"/>
+      <c r="AY28" s="140"/>
+      <c r="AZ28" s="140"/>
+      <c r="BA28" s="140"/>
+      <c r="BB28" s="77"/>
+      <c r="BC28" s="77"/>
+      <c r="BD28" s="77"/>
+      <c r="BE28" s="244"/>
+      <c r="BF28" s="140"/>
+      <c r="BG28" s="140"/>
+      <c r="BH28" s="77"/>
+      <c r="BI28" s="77"/>
+      <c r="BJ28" s="245"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+    </row>
+    <row r="29" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="262"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="191"/>
+      <c r="U29" s="212"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="163"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="213"/>
+      <c r="AA29" s="212"/>
+      <c r="AB29" s="163"/>
+      <c r="AC29" s="163"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="213"/>
+      <c r="AG29" s="212"/>
+      <c r="AH29" s="163"/>
+      <c r="AI29" s="163"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="213"/>
+      <c r="AM29" s="212"/>
+      <c r="AN29" s="163"/>
+      <c r="AO29" s="163"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="213"/>
+      <c r="AS29" s="212"/>
+      <c r="AT29" s="163"/>
+      <c r="AU29" s="163"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="213"/>
+      <c r="AY29" s="141"/>
+      <c r="AZ29" s="141"/>
+      <c r="BA29" s="141"/>
+      <c r="BB29" s="85"/>
+      <c r="BC29" s="85"/>
+      <c r="BD29" s="85"/>
+      <c r="BE29" s="246"/>
+      <c r="BF29" s="141"/>
+      <c r="BG29" s="141"/>
+      <c r="BH29" s="85"/>
+      <c r="BI29" s="85"/>
+      <c r="BJ29" s="247"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="38"/>
+    </row>
+    <row r="30" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="192"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="214"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="215"/>
+      <c r="AA30" s="214"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="215"/>
+      <c r="AG30" s="214"/>
+      <c r="AH30" s="164"/>
+      <c r="AI30" s="164"/>
+      <c r="AJ30" s="89"/>
+      <c r="AK30" s="89"/>
+      <c r="AL30" s="215"/>
+      <c r="AM30" s="214"/>
+      <c r="AN30" s="164"/>
+      <c r="AO30" s="164"/>
+      <c r="AP30" s="89"/>
+      <c r="AQ30" s="89"/>
+      <c r="AR30" s="215"/>
+      <c r="AS30" s="214"/>
+      <c r="AT30" s="164"/>
+      <c r="AU30" s="164"/>
+      <c r="AV30" s="89"/>
+      <c r="AW30" s="89"/>
+      <c r="AX30" s="215"/>
+      <c r="AY30" s="142"/>
+      <c r="AZ30" s="142"/>
+      <c r="BA30" s="142"/>
+      <c r="BB30" s="90"/>
+      <c r="BC30" s="90"/>
+      <c r="BD30" s="90"/>
+      <c r="BE30" s="248"/>
+      <c r="BF30" s="142"/>
+      <c r="BG30" s="142"/>
+      <c r="BH30" s="90"/>
+      <c r="BI30" s="90"/>
+      <c r="BJ30" s="249"/>
+      <c r="BK30" s="38"/>
+      <c r="BL30" s="38"/>
+      <c r="BM30" s="38"/>
+      <c r="BN30" s="38"/>
+      <c r="BO30" s="38"/>
+      <c r="BP30" s="38"/>
+      <c r="BQ30" s="38"/>
+      <c r="BR30" s="38"/>
+      <c r="BS30" s="38"/>
+    </row>
+    <row r="31" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="91">
+        <f>SUM(C7:C27)</f>
+        <v>290</v>
+      </c>
+      <c r="D31" s="92">
+        <f>SUM(D11:D27)</f>
+        <v>290</v>
+      </c>
+      <c r="E31" s="92">
+        <f>SUM(E11:E27)</f>
+        <v>-82.41</v>
+      </c>
+      <c r="F31" s="92">
+        <f>$F27</f>
+        <v>580</v>
+      </c>
+      <c r="G31" s="92">
+        <f>$G27</f>
+        <v>207.59</v>
+      </c>
+      <c r="H31" s="107">
+        <f>SUM(H11:H27)</f>
+        <v>-0.30514972275766877</v>
+      </c>
+      <c r="I31" s="264">
+        <f>SUM(I7:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="92">
+        <f>SUM(J11:J27)</f>
+        <v>202</v>
+      </c>
+      <c r="K31" s="92">
+        <f>SUM(K11:K27)</f>
+        <v>100</v>
+      </c>
+      <c r="L31" s="92">
+        <f>$L27</f>
+        <v>202</v>
+      </c>
+      <c r="M31" s="92">
+        <f>$M27</f>
+        <v>100</v>
+      </c>
+      <c r="N31" s="265">
+        <f>SUM(N11:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="194">
+        <f>SUM(O7:O27)</f>
         <v>180</v>
       </c>
-      <c r="R6" s="96"/>
-      <c r="T6" s="138"/>
-    </row>
-    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72">
-        <f>E5</f>
+      <c r="P31" s="93">
+        <f>SUM(P11:P27)</f>
         <v>180</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="71">
-        <f>I6</f>
-        <v>180</v>
-      </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="72">
+      <c r="Q31" s="93">
+        <f>SUM(Q11:Q27)</f>
+        <v>-70.22</v>
+      </c>
+      <c r="R31" s="93">
+        <f>$R27</f>
+        <v>360</v>
+      </c>
+      <c r="S31" s="93">
+        <f>$S27</f>
+        <v>109.78</v>
+      </c>
+      <c r="T31" s="195">
+        <f>SUM(T11:T27)</f>
+        <v>-0.43542534687274004</v>
+      </c>
+      <c r="U31" s="216">
+        <f>SUM(U7:U27)</f>
+        <v>532</v>
+      </c>
+      <c r="V31" s="94">
+        <f>SUM(V11:V27)</f>
+        <v>550</v>
+      </c>
+      <c r="W31" s="94">
+        <f>SUM(W11:W27)</f>
+        <v>497.46</v>
+      </c>
+      <c r="X31" s="94">
+        <f>$X27</f>
+        <v>1082</v>
+      </c>
+      <c r="Y31" s="94">
+        <f>$Y27</f>
+        <v>1029.46</v>
+      </c>
+      <c r="Z31" s="217">
+        <f>SUM(Z11:Z27)</f>
+        <v>0.79772595919012701</v>
+      </c>
+      <c r="AA31" s="216">
+        <f>SUM(AA7:AA27)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="94">
+        <f>SUM(AB11:AB27)</f>
+        <v>202</v>
+      </c>
+      <c r="AC31" s="94">
+        <f>SUM(AC11:AC27)</f>
+        <v>100</v>
+      </c>
+      <c r="AD31" s="94">
+        <f>$AD27</f>
+        <v>202</v>
+      </c>
+      <c r="AE31" s="94">
+        <f>$AE27</f>
+        <v>100</v>
+      </c>
+      <c r="AF31" s="217">
+        <f>SUM(AF11:AF27)</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="216">
+        <f>SUM(AG7:AG27)</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="94">
+        <f>SUM(AH11:AH27)</f>
+        <v>202</v>
+      </c>
+      <c r="AI31" s="94">
+        <f>SUM(AI11:AI27)</f>
+        <v>100</v>
+      </c>
+      <c r="AJ31" s="94">
+        <f>$AJ27</f>
+        <v>202</v>
+      </c>
+      <c r="AK31" s="94">
+        <f>$AK27</f>
+        <v>100</v>
+      </c>
+      <c r="AL31" s="217">
+        <f>SUM(AL11:AL27)</f>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="216">
+        <f>SUM(AM7:AM27)</f>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="94">
+        <f>SUM(AN11:AN27)</f>
+        <v>202</v>
+      </c>
+      <c r="AO31" s="94">
+        <f>SUM(AO11:AO27)</f>
+        <v>100</v>
+      </c>
+      <c r="AP31" s="94">
+        <f>$AP27</f>
+        <v>202</v>
+      </c>
+      <c r="AQ31" s="94">
+        <f>$AQ27</f>
+        <v>100</v>
+      </c>
+      <c r="AR31" s="217">
+        <f>SUM(AR11:AR27)</f>
+        <v>0</v>
+      </c>
+      <c r="AS31" s="216">
+        <f>SUM(AS7:AS27)</f>
+        <v>0</v>
+      </c>
+      <c r="AT31" s="94">
+        <f>SUM(AT11:AT27)</f>
+        <v>202</v>
+      </c>
+      <c r="AU31" s="94">
+        <f>SUM(AU11:AU27)</f>
+        <v>100</v>
+      </c>
+      <c r="AV31" s="94">
+        <f>$AV27</f>
+        <v>202</v>
+      </c>
+      <c r="AW31" s="94">
+        <f>$AW27</f>
+        <v>100</v>
+      </c>
+      <c r="AX31" s="217">
+        <f>SUM(AX11:AX27)</f>
+        <v>0</v>
+      </c>
+      <c r="AY31" s="200">
+        <f>SUM(AY7:AY27)</f>
         <v>260</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72">
-        <f>K7</f>
+      <c r="AZ31" s="95">
+        <f>SUM(AZ11:AZ27)</f>
         <v>260</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88">
-        <f>K7+G7+C7</f>
-        <v>260</v>
-      </c>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89">
-        <f>O7</f>
-        <v>260</v>
-      </c>
-      <c r="R7" s="90"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="137"/>
-    </row>
-    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
-        <v>44533</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="118">
-        <f>'Coût des signaux'!H11</f>
-        <v>-35.044247787610622</v>
-      </c>
-      <c r="E8" s="130">
-        <f>D8+E7</f>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F8" s="60">
-        <f>D8/E7</f>
-        <v>-0.19469026548672569</v>
-      </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="119">
-        <f>'Coût des signaux'!H12</f>
-        <v>-31.858407079646021</v>
-      </c>
-      <c r="I8" s="125">
-        <f>H8+I7</f>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J8" s="78">
-        <f>H8/I7</f>
-        <v>-0.1769911504424779</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="120">
-        <f>'Coût des signaux'!H13</f>
-        <v>-60.530973451327441</v>
-      </c>
-      <c r="M8" s="127">
-        <f>L8+M7</f>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N8" s="61">
-        <f>L8/M7</f>
-        <v>-0.23281143635125939</v>
-      </c>
-      <c r="O8" s="3">
-        <f>SUM(G8,K8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="133">
-        <f>L8+H8+D8</f>
-        <v>-127.43362831858408</v>
-      </c>
-      <c r="Q8" s="133">
-        <f>I8+M8+E8</f>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R8" s="58">
-        <f>P8/Q8</f>
-        <v>-0.25871361839741286</v>
-      </c>
-      <c r="T8" s="139">
-        <f>T7+P8</f>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="131">
-        <f>D9+E8</f>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F9" s="36">
-        <f>D9/E8</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="129">
-        <f t="shared" ref="I9:I24" si="0">H9+I8</f>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J9" s="79">
-        <f>H9/I8</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="128">
-        <f t="shared" ref="M9:M24" si="1">L9+M8</f>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N9" s="51">
-        <f>L9/M8</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" ref="O9:O24" si="2">SUM(G9,K9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="121">
-        <f t="shared" ref="P9:P24" si="3">SUM(H9,L9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="121">
-        <f>I9+M9+E9</f>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R9" s="58">
-        <f t="shared" ref="R9:R24" si="4">P9/Q9</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="139">
-        <f>T8+P9</f>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="131">
-        <f t="shared" ref="E10:E24" si="5">D10+E9</f>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F10" s="36">
-        <f t="shared" ref="F10:F22" si="6">D10/E9</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J10" s="79">
-        <f t="shared" ref="J10:J24" si="7">H10/I9</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N10" s="51">
-        <f t="shared" ref="N10:N24" si="8">L10/M9</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="121">
-        <f t="shared" ref="Q10:Q24" si="9">I10+M10+E10</f>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R10" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="139">
-        <f t="shared" ref="T10:T24" si="10">P10+P9+T9</f>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F11" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J11" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N11" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R11" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F12" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J12" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N12" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R12" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F13" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J13" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N13" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R13" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F14" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J14" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N14" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R14" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F15" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J15" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N15" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R15" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F16" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J16" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N16" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R16" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F17" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J17" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N17" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R17" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F18" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J18" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N18" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R18" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F19" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J19" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N19" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R19" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F20" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J20" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N20" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R20" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F21" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J21" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N21" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R21" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F22" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J22" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N22" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R22" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F23" s="36">
-        <f>D23/E22</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J23" s="79">
-        <f>H23/I22</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N23" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="121">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R23" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="139">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="131">
-        <f t="shared" si="5"/>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F24" s="36">
-        <f t="shared" ref="F24" si="11">D24/E23</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="129">
-        <f t="shared" si="0"/>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J24" s="79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="128">
-        <f t="shared" si="1"/>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N24" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="134">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="134">
-        <f t="shared" si="9"/>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R24" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="140">
-        <f t="shared" si="10"/>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
-    </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-    </row>
-    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="24">
-        <f>SUM(C5:C24)</f>
-        <v>180</v>
-      </c>
-      <c r="D28" s="25">
-        <f>SUM(D8:D24)</f>
-        <v>-35.044247787610622</v>
-      </c>
-      <c r="E28" s="132">
-        <f>$E24</f>
-        <v>144.95575221238937</v>
-      </c>
-      <c r="F28" s="26">
-        <f>SUM(F8:F24)</f>
-        <v>-0.19469026548672569</v>
-      </c>
-      <c r="G28" s="27">
-        <f>SUM(G5:G24)</f>
-        <v>180</v>
-      </c>
-      <c r="H28" s="28">
-        <f>SUM(H8:H24)</f>
-        <v>-31.858407079646021</v>
-      </c>
-      <c r="I28" s="126">
-        <f>$I24</f>
-        <v>148.14159292035399</v>
-      </c>
-      <c r="J28" s="84">
-        <f>SUM(J8:J24)</f>
-        <v>-0.1769911504424779</v>
-      </c>
-      <c r="K28" s="48">
-        <f>SUM(K5:K24)</f>
-        <v>260</v>
-      </c>
-      <c r="L28" s="49">
-        <f>SUM(L8:L24)</f>
-        <v>-60.530973451327441</v>
-      </c>
-      <c r="M28" s="124">
-        <f>$M24</f>
-        <v>199.46902654867256</v>
-      </c>
-      <c r="N28" s="50">
-        <f>SUM(N8:N24)</f>
-        <v>-0.23281143635125939</v>
-      </c>
-      <c r="O28" s="29">
-        <f>SUM(O5:O24)</f>
-        <v>620</v>
-      </c>
-      <c r="P28" s="122">
-        <f>SUM(P8:P24)</f>
-        <v>-127.43362831858408</v>
-      </c>
-      <c r="Q28" s="123">
-        <f>$Q24</f>
-        <v>492.56637168141594</v>
-      </c>
-      <c r="R28" s="52">
-        <f>SUM(R8:R24)</f>
-        <v>-0.25871361839741286</v>
-      </c>
-      <c r="T28" s="135">
-        <f>$T24</f>
-        <v>-127.43362831858408</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="21"/>
-      <c r="P29" s="29" t="s">
+      <c r="BA31" s="95">
+        <f>SUM(BA11:BA27)</f>
+        <v>-98.97999999999999</v>
+      </c>
+      <c r="BB31" s="95">
+        <f>$BB27</f>
+        <v>520</v>
+      </c>
+      <c r="BC31" s="95">
+        <f>$BC27</f>
+        <v>161.02000000000001</v>
+      </c>
+      <c r="BD31" s="231">
+        <f>SUM(BD11:BD27)</f>
+        <v>-0.40372710289875324</v>
+      </c>
+      <c r="BE31" s="250">
+        <f>SUM(BE7:BE27)</f>
+        <v>0</v>
+      </c>
+      <c r="BF31" s="95">
+        <f>SUM(BF11:BF27)</f>
+        <v>192</v>
+      </c>
+      <c r="BG31" s="95">
+        <f>SUM(BG11:BG27)</f>
+        <v>90</v>
+      </c>
+      <c r="BH31" s="95">
+        <f>$BH27</f>
+        <v>192</v>
+      </c>
+      <c r="BI31" s="95">
+        <f>$BI27</f>
+        <v>90</v>
+      </c>
+      <c r="BJ31" s="251">
+        <f>SUM(BJ11:BJ27)</f>
+        <v>0</v>
+      </c>
+      <c r="BK31" s="233">
+        <f>SUM(BK7:BK27)</f>
+        <v>1262</v>
+      </c>
+      <c r="BL31" s="138">
+        <f>SUM(BL11:BL27)</f>
+        <v>2482</v>
+      </c>
+      <c r="BM31" s="138">
+        <f>SUM(BM11:BM27)</f>
+        <v>835.84999999999991</v>
+      </c>
+      <c r="BN31" s="138">
+        <f>BH31+BB31+AV31+AP31+AJ31+AD31+X31+R31+L31+F31</f>
+        <v>3744</v>
+      </c>
+      <c r="BO31" s="274">
+        <f>BI31+BC31+AW31+AQ31+AK31+Y31+AE31+S31+M31+G31</f>
+        <v>2097.85</v>
+      </c>
+      <c r="BP31" s="275">
+        <f>SUM(BP11:BP27)</f>
+        <v>0.40643429310482893</v>
+      </c>
+      <c r="BQ31" s="38"/>
+      <c r="BR31" s="136">
+        <f>$BR27</f>
+        <v>2482</v>
+      </c>
+      <c r="BS31" s="136">
+        <f>$BS27</f>
+        <v>835.84999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="2:71" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="BM32" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="136">
-        <f>O28+P28</f>
-        <v>492.56637168141594</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q32" s="22"/>
+      <c r="BN32" s="138">
+        <f>BL31+BK31</f>
+        <v>3744</v>
+      </c>
+      <c r="BO32" s="97">
+        <f>BK31+BM31</f>
+        <v>2097.85</v>
+      </c>
+      <c r="BP32" s="38"/>
+      <c r="BQ32" s="38"/>
+      <c r="BR32" s="139">
+        <f>BS31/BR31</f>
+        <v>0.33676470588235291</v>
+      </c>
+      <c r="BS32" s="139"/>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="38"/>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="Y35" s="5"/>
+    </row>
+    <row r="36" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="Y36" s="137"/>
+    </row>
+    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="N37" s="276"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+      <c r="AA37" s="137"/>
+    </row>
+    <row r="38" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="Y38" s="137"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C25:D27"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
+  <mergeCells count="49">
+    <mergeCell ref="AY28:BA30"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="AY2:BD2"/>
+    <mergeCell ref="AY3:BD3"/>
+    <mergeCell ref="AY4:BD4"/>
+    <mergeCell ref="AY5:BD5"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="BE2:BJ2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AG3:AL3"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AG5:AL5"/>
+    <mergeCell ref="AG28:AI30"/>
+    <mergeCell ref="AM3:AR3"/>
+    <mergeCell ref="AM4:AR4"/>
+    <mergeCell ref="AM5:AR5"/>
+    <mergeCell ref="AM28:AO30"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="U5:Z5"/>
+    <mergeCell ref="U28:W30"/>
+    <mergeCell ref="AA3:AF3"/>
+    <mergeCell ref="AA4:AF4"/>
+    <mergeCell ref="AA5:AF5"/>
+    <mergeCell ref="AA28:AC30"/>
+    <mergeCell ref="BR32:BS32"/>
+    <mergeCell ref="BE28:BG30"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O28:Q30"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="BE3:BJ3"/>
+    <mergeCell ref="BE4:BJ4"/>
+    <mergeCell ref="AS3:AX3"/>
+    <mergeCell ref="AS4:AX4"/>
+    <mergeCell ref="AS28:AU30"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="AS5:AX5"/>
+    <mergeCell ref="BE5:BJ5"/>
   </mergeCells>
-  <conditionalFormatting sqref="T28">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39AC05D1-E51E-4C54-900B-E2DD28390935}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R24">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="BP11:BP27">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2898,9 +7010,19 @@
         </ext>
       </extLst>
     </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T24">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="BS11:BS27">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2913,27 +7035,56 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BR11:BR27">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C0C3A0F-77C7-47D4-B3C0-6D65B0B64B26}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR31">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{064BEF84-FA51-42BC-B67F-55E1B8AE1FA5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS31">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E3B9803-5B96-46A5-8AF2-400CB3F819C1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M28 G28 E28 I28 K28 O28 Q28" formula="1"/>
+    <ignoredError sqref="BI31 O31 M31 BE31 BK31" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39AC05D1-E51E-4C54-900B-E2DD28390935}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T28</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{073F04DE-4FC8-4D4C-8447-439C0951C4B2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -2945,7 +7096,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R8:R24</xm:sqref>
+          <xm:sqref>BP11:BP27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8030873F-CBEB-450C-B5D8-9B8C4DACC859}">
@@ -2958,7 +7109,46 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T8:T24</xm:sqref>
+          <xm:sqref>BS11:BS27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1C0C3A0F-77C7-47D4-B3C0-6D65B0B64B26}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BR11:BR27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{064BEF84-FA51-42BC-B67F-55E1B8AE1FA5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BR31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E3B9803-5B96-46A5-8AF2-400CB3F819C1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BS31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2971,7 +7161,7 @@
   <dimension ref="D9:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,72 +7174,72 @@
   <sheetData>
     <row r="9" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="19">
         <v>-33</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="27">
         <f>E11/1.13</f>
         <v>-29.203539823008853</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="20">
         <v>0.2</v>
       </c>
-      <c r="H11" s="115">
+      <c r="H11" s="30">
         <f>F11+F11*G11</f>
         <v>-35.044247787610622</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="106">
+      <c r="E12" s="21">
         <v>-30</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="29">
         <f>E12/1.13</f>
         <v>-26.548672566371685</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="22">
         <v>0.2</v>
       </c>
-      <c r="H12" s="116">
+      <c r="H12" s="31">
         <f>F12+F12*G12</f>
         <v>-31.858407079646021</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="23">
         <v>-57</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="28">
         <f>E13/1.13</f>
         <v>-50.442477876106203</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G13" s="24">
         <v>0.2</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="32">
         <f>F13+F13*G13</f>
         <v>-60.530973451327441</v>
       </c>
@@ -3063,10 +7253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098897BA-202D-4201-B694-35FB7012772C}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,7 +7305,7 @@
         <f>(C3+E3)+B4</f>
         <v>1450</v>
       </c>
-      <c r="D4" s="141">
+      <c r="D4" s="33">
         <f t="shared" ref="D4:D7" si="0">C4/10000</f>
         <v>0.14499999999999999</v>
       </c>
@@ -3291,6 +7481,12 @@
       <c r="E14">
         <f t="shared" si="1"/>
         <v>626400</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f>100/3</f>
+        <v>33.333333333333336</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +7498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9EABD-0206-48D4-B083-9E66A0EDCAE6}">
   <dimension ref="A1:J506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
